--- a/123_41.xlsx
+++ b/123_41.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A05D9-CC26-4A74-B356-1815243C473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7806FDC-A279-4624-8ED2-D510BB0F9040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA111B2D-3F18-41DE-9E8E-CC2FAA985F01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DA111B2D-3F18-41DE-9E8E-CC2FAA985F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>x0</t>
   </si>
@@ -87,13 +88,20 @@
       <t>+x/y)</t>
     </r>
   </si>
+  <si>
+    <t>xn</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,9 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4608,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BEBDD4-D483-45DD-A813-2D35E36A715E}">
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,7 +8574,7 @@
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D185" s="1">
-        <f t="shared" ref="D185:D248" si="15">D184+1</f>
+        <f t="shared" ref="D185:D208" si="15">D184+1</f>
         <v>177</v>
       </c>
       <c r="E185" s="1">
@@ -9095,4 +9105,2293 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6DEB08-A93A-4902-AC81-0ACA9751FCC7}">
+  <dimension ref="A1:J204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="K196" sqref="K196"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="16.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="1">
+        <f>(C2-A2)/D2</f>
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <f>B2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <f>H4+1</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f>I4+$D$2</f>
+        <v>1.01</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H69" si="0">H5+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I69" si="1">I5+$D$2</f>
+        <v>1.02</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.03</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.07</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2600000000000002</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2700000000000002</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2900000000000003</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3100000000000003</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3300000000000003</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3400000000000003</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3700000000000003</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3800000000000003</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3900000000000003</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4100000000000004</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4200000000000004</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4300000000000004</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4600000000000004</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4700000000000004</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4800000000000004</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4900000000000004</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5100000000000005</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5200000000000005</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5300000000000005</v>
+      </c>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5400000000000005</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H59" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5600000000000005</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5700000000000005</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5800000000000005</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5900000000000005</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H65" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6100000000000005</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H66" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6200000000000006</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6300000000000006</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6400000000000006</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000006</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="2">
+        <f t="shared" ref="H70:H133" si="2">H69+1</f>
+        <v>66</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" ref="I70:I133" si="3">I69+$D$2</f>
+        <v>1.6600000000000006</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="2">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6700000000000006</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="2">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6800000000000006</v>
+      </c>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="2">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6900000000000006</v>
+      </c>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="2">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="2">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7100000000000006</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="2">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7200000000000006</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="2">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7300000000000006</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="2">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7400000000000007</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="2">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7500000000000007</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H80" s="2">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7600000000000007</v>
+      </c>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H81" s="2">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7700000000000007</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H82" s="2">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7800000000000007</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H83" s="2">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7900000000000007</v>
+      </c>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H84" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H85" s="2">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8100000000000007</v>
+      </c>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H86" s="2">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8200000000000007</v>
+      </c>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H87" s="2">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8300000000000007</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="2">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8400000000000007</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H89" s="2">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8500000000000008</v>
+      </c>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H90" s="2">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8600000000000008</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H91" s="2">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8700000000000008</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H92" s="2">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8800000000000008</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H93" s="2">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8900000000000008</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H94" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="2">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9100000000000008</v>
+      </c>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H96" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9200000000000008</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H97" s="2">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9300000000000008</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H98" s="2">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9400000000000008</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="2">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9500000000000008</v>
+      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="2">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9600000000000009</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="2">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9700000000000009</v>
+      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="2">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9800000000000009</v>
+      </c>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="2">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9900000000000009</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="2">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0100000000000007</v>
+      </c>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="2">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0200000000000005</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="2">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H108" s="2">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" si="3"/>
+        <v>2.04</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H109" s="2">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H110" s="2">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0599999999999996</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="2">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0699999999999994</v>
+      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H112" s="2">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0799999999999992</v>
+      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H113" s="2">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="3"/>
+        <v>2.089999999999999</v>
+      </c>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H114" s="2">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999988</v>
+      </c>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H115" s="2">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1099999999999985</v>
+      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H116" s="2">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1199999999999983</v>
+      </c>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H117" s="2">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1299999999999981</v>
+      </c>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H118" s="2">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1399999999999979</v>
+      </c>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H119" s="2">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="I119" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1499999999999977</v>
+      </c>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H120" s="2">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1599999999999975</v>
+      </c>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H121" s="2">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1699999999999973</v>
+      </c>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H122" s="2">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="I122" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1799999999999971</v>
+      </c>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H123" s="2">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="I123" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1899999999999968</v>
+      </c>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H124" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="I124" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999966</v>
+      </c>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H125" s="2">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2099999999999964</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H126" s="2">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2199999999999962</v>
+      </c>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H127" s="2">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="I127" s="3">
+        <f t="shared" si="3"/>
+        <v>2.229999999999996</v>
+      </c>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H128" s="2">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="I128" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2399999999999958</v>
+      </c>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H129" s="2">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I129" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999956</v>
+      </c>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H130" s="2">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="I130" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2599999999999953</v>
+      </c>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H131" s="2">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="I131" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2699999999999951</v>
+      </c>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H132" s="2">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="I132" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2799999999999949</v>
+      </c>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H133" s="2">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="I133" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2899999999999947</v>
+      </c>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H134" s="2">
+        <f t="shared" ref="H134:H197" si="4">H133+1</f>
+        <v>130</v>
+      </c>
+      <c r="I134" s="3">
+        <f t="shared" ref="I134:I197" si="5">I133+$D$2</f>
+        <v>2.2999999999999945</v>
+      </c>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H135" s="2">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3099999999999943</v>
+      </c>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H136" s="2">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="I136" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3199999999999941</v>
+      </c>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H137" s="2">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3299999999999939</v>
+      </c>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H138" s="2">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="I138" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3399999999999936</v>
+      </c>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H139" s="2">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="I139" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3499999999999934</v>
+      </c>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H140" s="2">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="I140" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3599999999999932</v>
+      </c>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H141" s="2">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="I141" s="3">
+        <f t="shared" si="5"/>
+        <v>2.369999999999993</v>
+      </c>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H142" s="2">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="I142" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3799999999999928</v>
+      </c>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H143" s="2">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="I143" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3899999999999926</v>
+      </c>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H144" s="2">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="I144" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999924</v>
+      </c>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H145" s="2">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="I145" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4099999999999921</v>
+      </c>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H146" s="2">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="I146" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4199999999999919</v>
+      </c>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H147" s="2">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="I147" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4299999999999917</v>
+      </c>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H148" s="2">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="I148" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4399999999999915</v>
+      </c>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H149" s="2">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="I149" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4499999999999913</v>
+      </c>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H150" s="2">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="I150" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4599999999999911</v>
+      </c>
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H151" s="2">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="I151" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4699999999999909</v>
+      </c>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H152" s="2">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="I152" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4799999999999907</v>
+      </c>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H153" s="2">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="I153" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4899999999999904</v>
+      </c>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H154" s="2">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="I154" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4999999999999902</v>
+      </c>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H155" s="2">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="I155" s="3">
+        <f t="shared" si="5"/>
+        <v>2.50999999999999</v>
+      </c>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H156" s="2">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="I156" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5199999999999898</v>
+      </c>
+      <c r="J156" s="3"/>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H157" s="2">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="I157" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5299999999999896</v>
+      </c>
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H158" s="2">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5399999999999894</v>
+      </c>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H159" s="2">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="I159" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5499999999999892</v>
+      </c>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H160" s="2">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="I160" s="3">
+        <f t="shared" si="5"/>
+        <v>2.559999999999989</v>
+      </c>
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H161" s="2">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="I161" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5699999999999887</v>
+      </c>
+      <c r="J161" s="3"/>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H162" s="2">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="I162" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5799999999999885</v>
+      </c>
+      <c r="J162" s="3"/>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H163" s="2">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="I163" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5899999999999883</v>
+      </c>
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H164" s="2">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="I164" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5999999999999881</v>
+      </c>
+      <c r="J164" s="3"/>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H165" s="2">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="I165" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6099999999999879</v>
+      </c>
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H166" s="2">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="I166" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6199999999999877</v>
+      </c>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H167" s="2">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="I167" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6299999999999875</v>
+      </c>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H168" s="2">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="I168" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6399999999999872</v>
+      </c>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H169" s="2">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="I169" s="3">
+        <f t="shared" si="5"/>
+        <v>2.649999999999987</v>
+      </c>
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H170" s="2">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="I170" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6599999999999868</v>
+      </c>
+      <c r="J170" s="3"/>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H171" s="2">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="I171" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6699999999999866</v>
+      </c>
+      <c r="J171" s="3"/>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H172" s="2">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="I172" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6799999999999864</v>
+      </c>
+      <c r="J172" s="3"/>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H173" s="2">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="I173" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6899999999999862</v>
+      </c>
+      <c r="J173" s="3"/>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H174" s="2">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="I174" s="3">
+        <f t="shared" si="5"/>
+        <v>2.699999999999986</v>
+      </c>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H175" s="2">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="I175" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7099999999999858</v>
+      </c>
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H176" s="2">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="I176" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7199999999999855</v>
+      </c>
+      <c r="J176" s="3"/>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H177" s="2">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="I177" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7299999999999853</v>
+      </c>
+      <c r="J177" s="3"/>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H178" s="2">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="I178" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7399999999999851</v>
+      </c>
+      <c r="J178" s="3"/>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H179" s="2">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="I179" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7499999999999849</v>
+      </c>
+      <c r="J179" s="3"/>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H180" s="2">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="I180" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7599999999999847</v>
+      </c>
+      <c r="J180" s="3"/>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H181" s="2">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="I181" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7699999999999845</v>
+      </c>
+      <c r="J181" s="3"/>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="2">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="I182" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7799999999999843</v>
+      </c>
+      <c r="J182" s="3"/>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="2">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="I183" s="3">
+        <f t="shared" si="5"/>
+        <v>2.789999999999984</v>
+      </c>
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H184" s="2">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I184" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7999999999999838</v>
+      </c>
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H185" s="2">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="I185" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8099999999999836</v>
+      </c>
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H186" s="2">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="I186" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8199999999999834</v>
+      </c>
+      <c r="J186" s="3"/>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H187" s="2">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="I187" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8299999999999832</v>
+      </c>
+      <c r="J187" s="3"/>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H188" s="2">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="I188" s="3">
+        <f t="shared" si="5"/>
+        <v>2.839999999999983</v>
+      </c>
+      <c r="J188" s="3"/>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H189" s="2">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="I189" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8499999999999828</v>
+      </c>
+      <c r="J189" s="3"/>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H190" s="2">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="I190" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8599999999999826</v>
+      </c>
+      <c r="J190" s="3"/>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H191" s="2">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="I191" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8699999999999823</v>
+      </c>
+      <c r="J191" s="3"/>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H192" s="2">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="I192" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8799999999999821</v>
+      </c>
+      <c r="J192" s="3"/>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H193" s="2">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="I193" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8899999999999819</v>
+      </c>
+      <c r="J193" s="3"/>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H194" s="2">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="I194" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8999999999999817</v>
+      </c>
+      <c r="J194" s="3"/>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H195" s="2">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+      <c r="I195" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9099999999999815</v>
+      </c>
+      <c r="J195" s="3"/>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H196" s="2">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="I196" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9199999999999813</v>
+      </c>
+      <c r="J196" s="3"/>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H197" s="2">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="I197" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9299999999999811</v>
+      </c>
+      <c r="J197" s="3"/>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H198" s="2">
+        <f t="shared" ref="H198:H204" si="6">H197+1</f>
+        <v>194</v>
+      </c>
+      <c r="I198" s="3">
+        <f t="shared" ref="I198:I204" si="7">I197+$D$2</f>
+        <v>2.9399999999999809</v>
+      </c>
+      <c r="J198" s="3"/>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H199" s="2">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="I199" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9499999999999806</v>
+      </c>
+      <c r="J199" s="3"/>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H200" s="2">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="I200" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9599999999999804</v>
+      </c>
+      <c r="J200" s="3"/>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H201" s="2">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="I201" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9699999999999802</v>
+      </c>
+      <c r="J201" s="3"/>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H202" s="2">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="I202" s="3">
+        <f t="shared" si="7"/>
+        <v>2.97999999999998</v>
+      </c>
+      <c r="J202" s="3"/>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H203" s="2">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="I203" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9899999999999798</v>
+      </c>
+      <c r="J203" s="3"/>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H204" s="2">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="I204" s="3">
+        <f t="shared" si="7"/>
+        <v>2.9999999999999796</v>
+      </c>
+      <c r="J204" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/123_41.xlsx
+++ b/123_41.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD498EA8-658D-46C1-9D6F-18CACE544E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A33E0-3F88-4EEB-8617-D71657AAE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DA111B2D-3F18-41DE-9E8E-CC2FAA985F01}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>x0</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>y mod</t>
+  </si>
+  <si>
+    <t>yi+1</t>
+  </si>
+  <si>
+    <t>yit</t>
   </si>
 </sst>
 </file>
@@ -18825,10 +18831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6DEB08-A93A-4902-AC81-0ACA9751FCC7}">
-  <dimension ref="A1:O204"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18846,7 +18852,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18869,7 +18875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -18894,7 +18900,7 @@
         <v>-1.8333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
@@ -18919,8 +18925,14 @@
       <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H4" s="2">
         <v>0</v>
       </c>
@@ -18952,8 +18964,12 @@
         <f>N4^2+5*N4+1</f>
         <v>7.0350249999999992</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <f>$D$2/6*(K4+O4*2+I4)</f>
+        <v>3.6783416666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -18996,7 +19012,7 @@
         <v>7.105224999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -19039,7 +19055,7 @@
         <v>7.1756250000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19073,7 +19089,7 @@
         <v>7.2462249999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19107,7 +19123,7 @@
         <v>7.3170249999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19141,7 +19157,7 @@
         <v>7.388024999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19175,7 +19191,7 @@
         <v>7.4592249999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19209,7 +19225,7 @@
         <v>7.5306249999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19243,7 +19259,7 @@
         <v>7.6022249999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19277,7 +19293,7 @@
         <v>7.6740249999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19311,7 +19327,7 @@
         <v>7.7460250000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19345,7 +19361,7 @@
         <v>7.818225</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
